--- a/Geomorphology/Gavilan/GAVItrib2_2022-08-30.xlsx
+++ b/Geomorphology/Gavilan/GAVItrib2_2022-08-30.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Geomorphology/Gavilan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Documents/Ecuador2021/Geomorphology/Gavilan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D87E335-E5CF-554F-A9E3-1DABF7F4E1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{8D87E335-E5CF-554F-A9E3-1DABF7F4E1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A96C6DC1-882A-4F4E-8E22-3638BE75457D}"/>
   <bookViews>
-    <workbookView xWindow="7300" yWindow="4500" windowWidth="26040" windowHeight="14940" xr2:uid="{6813AB58-CC93-8E41-9A1D-2D408B592567}"/>
+    <workbookView xWindow="31035" yWindow="1290" windowWidth="22110" windowHeight="14625" xr2:uid="{6813AB58-CC93-8E41-9A1D-2D408B592567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>x</t>
   </si>
@@ -71,6 +72,9 @@
   </si>
   <si>
     <t>was underground, exposed here, but no way to know how far they have gone…. AUG. Hopefuly waypopint will help</t>
+  </si>
+  <si>
+    <t>x_new</t>
   </si>
 </sst>
 </file>
@@ -126,9 +130,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +170,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -272,7 +276,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -414,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F492F8C7-C220-4942-9F2A-957B73CB283A}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +459,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -472,8 +479,11 @@
       <c r="H2">
         <v>4108.9648440000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -483,8 +493,12 @@
       <c r="C3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <f>$I$2-A3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>19</v>
       </c>
@@ -497,8 +511,12 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f t="shared" ref="I4:I10" si="0">$I$2-A4</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21</v>
       </c>
@@ -511,8 +529,12 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
@@ -522,8 +544,12 @@
       <c r="C6">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40</v>
       </c>
@@ -533,8 +559,12 @@
       <c r="C7">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
@@ -556,8 +586,12 @@
       <c r="H8">
         <v>4113.3549800000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
@@ -582,8 +616,12 @@
       <c r="H9">
         <v>4109.8247069999898</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>70</v>
       </c>
@@ -607,6 +645,10 @@
       </c>
       <c r="H10">
         <v>4111.7583009999898</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
